--- a/data/offer.xlsx
+++ b/data/offer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vama1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2762D59-D1DF-44EA-A0CE-387AC93C13FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA79987E-65E3-47B8-90ED-9E85387CC492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D77CB3C7-20E3-45DB-B93D-EC789C8D1A63}"/>
+    <workbookView xWindow="336" yWindow="24" windowWidth="22704" windowHeight="12216" xr2:uid="{D77CB3C7-20E3-45DB-B93D-EC789C8D1A63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Patua &amp; Keratin Smoothening Shampoo</t>
   </si>
   <si>
-    <t>Squalene Glow Moisturizer</t>
-  </si>
-  <si>
     <t>Bullet Lipstick</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>BUY21119</t>
+  </si>
+  <si>
+    <t>Squalane Glow Moisturizer</t>
   </si>
 </sst>
 </file>
@@ -144,16 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7ACDD-644F-462E-A561-F3751E28FAF5}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -501,8 +500,8 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>30</v>
@@ -516,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>50</v>
@@ -530,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -543,8 +542,8 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
@@ -558,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>50</v>
@@ -572,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -585,8 +584,8 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
+      <c r="C8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -600,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -614,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -627,8 +626,8 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>30</v>
@@ -642,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -656,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
         <v>40</v>
@@ -667,10 +666,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -681,10 +680,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
         <v>50</v>
@@ -695,10 +694,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -709,10 +708,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
@@ -723,10 +722,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
         <v>50</v>
@@ -737,10 +736,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -751,10 +750,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>30</v>
@@ -765,10 +764,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <v>50</v>
@@ -779,10 +778,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -793,10 +792,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>30</v>
@@ -807,10 +806,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1">
         <v>50</v>
@@ -821,10 +820,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1">
         <v>40</v>
@@ -835,10 +834,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
@@ -849,10 +848,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1">
         <v>50</v>
@@ -863,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1">
         <v>40</v>
@@ -877,10 +876,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
       </c>
       <c r="D29" s="1">
         <v>30</v>
@@ -891,10 +890,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1">
         <v>50</v>
@@ -905,10 +904,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1">
         <v>40</v>
@@ -919,10 +918,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
@@ -933,10 +932,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1">
         <v>50</v>
@@ -947,10 +946,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1">
         <v>40</v>
@@ -961,10 +960,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="1">
         <v>30</v>
@@ -975,10 +974,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1">
         <v>50</v>
@@ -989,10 +988,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1">
         <v>40</v>
@@ -1003,10 +1002,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
       </c>
       <c r="D38" s="1">
         <v>30</v>
@@ -1017,10 +1016,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1">
         <v>50</v>
@@ -1031,10 +1030,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
@@ -1045,10 +1044,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
       </c>
       <c r="D41" s="1">
         <v>30</v>
@@ -1059,10 +1058,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1">
         <v>50</v>
@@ -1073,10 +1072,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1">
         <v>40</v>

--- a/data/offer.xlsx
+++ b/data/offer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vama1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA79987E-65E3-47B8-90ED-9E85387CC492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C491DCB-C40C-4C7C-8880-1DE711F522F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="24" windowWidth="22704" windowHeight="12216" xr2:uid="{D77CB3C7-20E3-45DB-B93D-EC789C8D1A63}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D77CB3C7-20E3-45DB-B93D-EC789C8D1A63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>10% Niacinamide Face Serum For Acne Marks</t>
   </si>
   <si>
-    <t>Patua &amp; Keratin Smoothening Shampoo</t>
-  </si>
-  <si>
     <t>Bullet Lipstick</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Squalane Glow Moisturizer</t>
+  </si>
+  <si>
+    <t>Patua &amp; Keratin Smoothening shampoo</t>
   </si>
 </sst>
 </file>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7ACDD-644F-462E-A561-F3751E28FAF5}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>30</v>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>50</v>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>50</v>
@@ -571,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -585,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -624,10 +624,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>30</v>
@@ -638,10 +638,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -652,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>40</v>
@@ -666,10 +666,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -680,10 +680,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
         <v>50</v>
@@ -694,10 +694,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -708,10 +708,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>30</v>
@@ -722,10 +722,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>50</v>
@@ -736,10 +736,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -750,10 +750,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <v>30</v>
@@ -764,10 +764,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1">
         <v>50</v>
@@ -778,10 +778,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <v>40</v>
@@ -792,10 +792,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>30</v>
@@ -806,10 +806,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
         <v>50</v>
@@ -820,10 +820,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1">
         <v>40</v>
@@ -834,10 +834,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
@@ -848,10 +848,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1">
         <v>50</v>
@@ -862,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1">
         <v>40</v>
@@ -876,10 +876,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1">
         <v>30</v>
@@ -890,10 +890,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1">
         <v>50</v>
@@ -904,10 +904,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1">
         <v>40</v>
@@ -918,10 +918,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
@@ -932,10 +932,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1">
         <v>50</v>
@@ -946,10 +946,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1">
         <v>40</v>
@@ -960,10 +960,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1">
         <v>30</v>
@@ -974,10 +974,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1">
         <v>50</v>
@@ -988,10 +988,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1">
         <v>40</v>
@@ -1002,10 +1002,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1">
         <v>30</v>
@@ -1016,10 +1016,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1">
         <v>50</v>
@@ -1030,10 +1030,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1">
         <v>40</v>
@@ -1044,10 +1044,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1">
         <v>30</v>
@@ -1058,10 +1058,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1">
         <v>50</v>
@@ -1072,10 +1072,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1">
         <v>40</v>
